--- a/src/downloads/SPAR data, 2010-2017 - 052020.xlsx
+++ b/src/downloads/SPAR data, 2010-2017 - 052020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikevanmaele/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikevanmaele/Documents/GitHub/gida-landing/src/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D81290-9E4D-3E4D-9FA7-BF8DC5A2CA5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBDE291B-71E6-7E4D-8F0A-79EC3A51BD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1765,9 +1765,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1802,6 +1799,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2202,7 +2202,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF391-350C-7040-AA4E-ABC7B5554BAA}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -2227,28 +2229,28 @@
       </c>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:4" ht="39" customHeight="1">
+    <row r="4" spans="1:4" ht="33" customHeight="1">
       <c r="B4" s="15"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>448</v>
       </c>
       <c r="D4" s="17"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" ht="304" customHeight="1" thickBot="1">
+    <row r="5" spans="1:4" s="11" customFormat="1" ht="272" customHeight="1" thickBot="1">
       <c r="A5"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" s="11" customFormat="1" ht="187" customHeight="1" thickBot="1">
       <c r="A6"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2286,41 +2288,41 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="70" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1"/>
     <row r="6" spans="1:17" ht="38" customHeight="1" thickBot="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="25" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="25" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="28" t="s">
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="30"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="40" customHeight="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -84677,41 +84679,41 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="70" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1"/>
     <row r="6" spans="1:18" ht="38" customHeight="1" thickBot="1">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="25" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="24" t="s">
         <v>441</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="25" t="s">
+      <c r="K6" s="28"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="28" t="s">
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" spans="1:18" ht="40" customHeight="1" thickBot="1">
       <c r="A7" s="6" t="s">

--- a/src/downloads/SPAR data, 2010-2017 - 052020.xlsx
+++ b/src/downloads/SPAR data, 2010-2017 - 052020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikevanmaele/Documents/GitHub/gida-landing/src/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBDE291B-71E6-7E4D-8F0A-79EC3A51BD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2812A316-5804-5F46-844C-0629B7B838F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="450">
   <si>
     <t>Country</t>
   </si>
@@ -1447,6 +1447,9 @@
   <si>
     <t>Last updated 2020-05-20</t>
   </si>
+  <si>
+    <t>Legend for SPAR data</t>
+  </si>
 </sst>
 </file>
 
@@ -1780,6 +1783,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1799,9 +1805,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1846,6 +1849,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A9591EC-52CD-5E48-9B4F-0546E22BCA47}"/>
@@ -1857,7 +1861,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2202,9 +2206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272FF391-350C-7040-AA4E-ABC7B5554BAA}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
@@ -2239,7 +2241,7 @@
     <row r="5" spans="1:4" s="11" customFormat="1" ht="272" customHeight="1" thickBot="1">
       <c r="A5"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>447</v>
       </c>
       <c r="D5" s="19"/>
@@ -2288,41 +2290,41 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="70" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1"/>
     <row r="6" spans="1:17" ht="38" customHeight="1" thickBot="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="24" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="24" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27" t="s">
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30"/>
     </row>
     <row r="7" spans="1:17" ht="40" customHeight="1" thickBot="1">
       <c r="A7" s="6" t="s">
@@ -84670,7 +84672,7 @@
     <row r="1" spans="1:18" ht="90" customHeight="1"/>
     <row r="2" spans="1:18" ht="34">
       <c r="A2" s="2" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="24">
@@ -84679,41 +84681,41 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="70" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1"/>
     <row r="6" spans="1:18" ht="38" customHeight="1" thickBot="1">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="24" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="24" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27" t="s">
+      <c r="N6" s="26"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="1:18" ht="40" customHeight="1" thickBot="1">
       <c r="A7" s="6" t="s">

--- a/src/downloads/SPAR data, 2010-2017 - 052020.xlsx
+++ b/src/downloads/SPAR data, 2010-2017 - 052020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikevanmaele/Documents/GitHub/gida-landing/src/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2812A316-5804-5F46-844C-0629B7B838F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20419AB4-61FB-5643-ABB5-725415525F8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1455,7 +1455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1532,6 +1532,12 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1577,7 +1583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1719,12 +1725,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="hair">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="hair">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="hair">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal style="hair">
+        <color rgb="FFFFFFFF"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1806,6 +1827,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1919,37 +1943,55 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7643D316-6C2A-794B-ABE8-25D1E3097883}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F637765-FF53-664C-92B7-F5CF7DF74DCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4064000" cy="1161143"/>
+          <a:ext cx="4191000" cy="1155700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1968,37 +2010,55 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:colOff>2222500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21935A56-0165-7B47-ACE2-4082A1C1E038}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00430C55-0F36-2D44-B3D5-EF5E43E798F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4064000" cy="1161143"/>
+          <a:ext cx="4191000" cy="1155700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2278,7 +2338,9 @@
     <col min="18" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="90" customHeight="1"/>
+    <row r="1" spans="1:17" ht="90" customHeight="1">
+      <c r="A1" s="32"/>
+    </row>
     <row r="2" spans="1:17" ht="34">
       <c r="A2" s="2" t="s">
         <v>400</v>
@@ -84669,7 +84731,9 @@
     <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="90" customHeight="1"/>
+    <row r="1" spans="1:18" ht="90" customHeight="1">
+      <c r="A1" s="32"/>
+    </row>
     <row r="2" spans="1:18" ht="34">
       <c r="A2" s="2" t="s">
         <v>449</v>
